--- a/public/temp/churn_list.xlsx
+++ b/public/temp/churn_list.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483F0768-2520-4DCF-BE84-80EC0DC09F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="User List" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="User List" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>UserId</t>
   </si>
@@ -47,6 +43,15 @@
     <t>male</t>
   </si>
   <si>
+    <t>"662c985341695bf91a21fb47"</t>
+  </si>
+  <si>
+    <t>"662c9aa3108e64a0b90ba78a"</t>
+  </si>
+  <si>
+    <t>"662c9aad108e64a0b90ba792"</t>
+  </si>
+  <si>
     <t>"662e7dc5202ce99cb6d78bfe"</t>
   </si>
   <si>
@@ -57,19 +62,22 @@
   </si>
   <si>
     <t>"662e7f28202ce99cb6d7903d"</t>
+  </si>
+  <si>
+    <t>"662e8752a6e497a9b4ba78ea"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -432,21 +440,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="3" width="10" customWidth="1"/>
     <col min="4" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -489,7 +492,7 @@
         <v>5994</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -498,50 +501,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>4896.166666666667</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>29377</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -550,34 +553,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>4896.166666666667</v>
+      </c>
+      <c r="E6">
+        <v>29377</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>378</v>
+      </c>
+      <c r="E7">
+        <v>378</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
         <v>11945.5</v>
       </c>
-      <c r="E5">
+      <c r="E8">
         <v>47782</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>32</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <v>32</v>
       </c>
-      <c r="H5">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/public/temp/churn_list.xlsx
+++ b/public/temp/churn_list.xlsx
@@ -512,16 +512,16 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2831</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8493</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -538,16 +538,16 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2031</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6093</v>
       </c>
       <c r="F4">
         <v>54</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>0</v>

--- a/public/temp/churn_list.xlsx
+++ b/public/temp/churn_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>UserId</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>"662e8752a6e497a9b4ba78ea"</t>
+  </si>
+  <si>
+    <t>"66372295b425072763390c59"</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -506,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -521,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -547,10 +550,10 @@
         <v>54</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -590,13 +593,13 @@
         <v>29377</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -668,12 +671,38 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
     </row>

--- a/public/temp/churn_list.xlsx
+++ b/public/temp/churn_list.xlsx
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -674,7 +674,7 @@
         <v>32</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>0</v>

--- a/public/temp/churn_list.xlsx
+++ b/public/temp/churn_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>UserId</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>"66372295b425072763390c59"</t>
+  </si>
+  <si>
+    <t>"66387de9038e410f6c5fe525"</t>
+  </si>
+  <si>
+    <t>"663c5b6487588d973c2f7c73"</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -515,16 +521,16 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>2831</v>
+        <v>2339.75</v>
       </c>
       <c r="E3">
-        <v>8493</v>
+        <v>9359</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -596,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -671,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>30</v>
@@ -691,18 +697,64 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
     </row>
